--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2334064379160067</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.564878678123135</v>
+        <v>-1.557314729235724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009684266783962708</v>
+        <v>0.00673770298888782</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.159050583019471</v>
+        <v>-0.1447458972450904</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2109686997716954</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.576156525127254</v>
+        <v>-1.566033221148609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01956123677012452</v>
+        <v>0.01614404125778073</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1242175398650868</v>
+        <v>-0.1074196078025659</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1935134017538132</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.644411503293776</v>
+        <v>-1.637757337458478</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03786055479404587</v>
+        <v>-0.04337434377596218</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.131181000457721</v>
+        <v>-0.1144901016954486</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1844279071167105</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.777310659762557</v>
+        <v>-1.775654791646949</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08170013536051263</v>
+        <v>-0.09279539614656117</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1386701834368697</v>
+        <v>-0.1201156460349772</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1800216403059702</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.807693163851464</v>
+        <v>-1.820591463540962</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1010290901700851</v>
+        <v>-0.1185573671048895</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1357944505022534</v>
+        <v>-0.1180599770625585</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1738272671270374</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.630472776965098</v>
+        <v>-1.64393221447134</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08765937175375703</v>
+        <v>-0.1170478827675622</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1285586846016341</v>
+        <v>-0.1141674277755819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1591139707305717</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.323826306801101</v>
+        <v>-1.326499778278631</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0974088461910935</v>
+        <v>-0.1305435227135943</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09227439581741065</v>
+        <v>-0.07301627186829673</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.133532713706484</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.839227530859334</v>
+        <v>-0.8262505302137705</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02698723070410072</v>
+        <v>-0.06596938826223354</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09305668332069708</v>
+        <v>-0.07817275850967778</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09732335517736837</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3262743744664561</v>
+        <v>-0.2959131196356871</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02272163888537585</v>
+        <v>-0.06555542123333147</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02529358612958118</v>
+        <v>-0.00692320896488085</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05256229441574153</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2265116968196177</v>
+        <v>0.2710406977612141</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05561391646319633</v>
+        <v>-0.09691145614876247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04850272635348027</v>
+        <v>0.0680347296297005</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.002034656348293616</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8613041643254572</v>
+        <v>0.9198403614275085</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1130420041038519</v>
+        <v>-0.1637112536376424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1257776210946162</v>
+        <v>0.13932362965253</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05140765849240721</v>
       </c>
       <c r="E13" t="n">
-        <v>1.518940371338734</v>
+        <v>1.592939732288443</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2641462657295967</v>
+        <v>-0.3208503045744539</v>
       </c>
       <c r="G13" t="n">
-        <v>0.228439870243211</v>
+        <v>0.2424108639638759</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.105942810491734</v>
       </c>
       <c r="E14" t="n">
-        <v>2.174637386794568</v>
+        <v>2.253130572335591</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4999122938327415</v>
+        <v>-0.5601059330695224</v>
       </c>
       <c r="G14" t="n">
-        <v>0.340044122019915</v>
+        <v>0.351696585574904</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1613596687927564</v>
       </c>
       <c r="E15" t="n">
-        <v>2.865699463867786</v>
+        <v>2.951123055599895</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7920313545166935</v>
+        <v>-0.8534873570887576</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4790740829661621</v>
+        <v>0.4923241759292713</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2185273140573963</v>
       </c>
       <c r="E16" t="n">
-        <v>3.536102539973932</v>
+        <v>3.626330038064251</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.029136085882504</v>
+        <v>-1.089166814140231</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6408738045211451</v>
+        <v>0.6537178005509586</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2776703983446382</v>
       </c>
       <c r="E17" t="n">
-        <v>4.185040717322901</v>
+        <v>4.284872880091397</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.305895867980805</v>
+        <v>-1.373370132663162</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8122514324292426</v>
+        <v>0.8252449602755798</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3373523176927465</v>
       </c>
       <c r="E18" t="n">
-        <v>4.827149225704546</v>
+        <v>4.939408269435711</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.522562748066087</v>
+        <v>-1.588098608200562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9680525671129486</v>
+        <v>0.9836715588536153</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.395771486626673</v>
       </c>
       <c r="E19" t="n">
-        <v>5.313310215624204</v>
+        <v>5.424377726880545</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.741604035995851</v>
+        <v>-1.811300028667924</v>
       </c>
       <c r="G19" t="n">
-        <v>1.136642607157223</v>
+        <v>1.149448826728125</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4533556996737157</v>
       </c>
       <c r="E20" t="n">
-        <v>5.729024405750929</v>
+        <v>5.847033341332206</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.892758666233477</v>
+        <v>-1.961932871566839</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2645757332983</v>
+        <v>1.276853082444445</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5106184026401136</v>
       </c>
       <c r="E21" t="n">
-        <v>6.033224063190864</v>
+        <v>6.142479878438587</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.094972115737416</v>
+        <v>-2.164036139732287</v>
       </c>
       <c r="G21" t="n">
-        <v>1.3834362132242</v>
+        <v>1.393626413015501</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5671700428969844</v>
       </c>
       <c r="E22" t="n">
-        <v>6.356346578507075</v>
+        <v>6.468456090421717</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.202654698873399</v>
+        <v>-2.267172955645954</v>
       </c>
       <c r="G22" t="n">
-        <v>1.482855982982915</v>
+        <v>1.490689876149629</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6214678604092398</v>
       </c>
       <c r="E23" t="n">
-        <v>6.487674863892798</v>
+        <v>6.591848171397841</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.295929497982557</v>
+        <v>-2.357903352845529</v>
       </c>
       <c r="G23" t="n">
-        <v>1.58648625389111</v>
+        <v>1.592651686789245</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6717657213890843</v>
       </c>
       <c r="E24" t="n">
-        <v>6.633150433140772</v>
+        <v>6.731010349950278</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.358564440876475</v>
+        <v>-2.415968918230311</v>
       </c>
       <c r="G24" t="n">
-        <v>1.593487490942656</v>
+        <v>1.594682171455723</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7157326142875514</v>
       </c>
       <c r="E25" t="n">
-        <v>6.713678825405636</v>
+        <v>6.80685288729103</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.364766863223961</v>
+        <v>-2.421739272328999</v>
       </c>
       <c r="G25" t="n">
-        <v>1.642275787626492</v>
+        <v>1.639777819280988</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7505823923160242</v>
       </c>
       <c r="E26" t="n">
-        <v>6.726283570529012</v>
+        <v>6.809889170176019</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.378355370298149</v>
+        <v>-2.43845220735897</v>
       </c>
       <c r="G26" t="n">
-        <v>1.684103771755936</v>
+        <v>1.673189523168837</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7740430649305213</v>
       </c>
       <c r="E27" t="n">
-        <v>6.675590710708402</v>
+        <v>6.748260025500612</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.301536941102191</v>
+        <v>-2.350580228883678</v>
       </c>
       <c r="G27" t="n">
-        <v>1.641606829499939</v>
+        <v>1.629560861164625</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7843204667501532</v>
       </c>
       <c r="E28" t="n">
-        <v>6.571337128228173</v>
+        <v>6.632259538318116</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.254073181508929</v>
+        <v>-2.291672563268999</v>
       </c>
       <c r="G28" t="n">
-        <v>1.601271015497487</v>
+        <v>1.582367045850666</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7800930748092223</v>
       </c>
       <c r="E29" t="n">
-        <v>6.432305593262804</v>
+        <v>6.48318733537797</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.17236506191265</v>
+        <v>-2.207138292340424</v>
       </c>
       <c r="G29" t="n">
-        <v>1.556841177760533</v>
+        <v>1.534584547385341</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7621404362586796</v>
       </c>
       <c r="E30" t="n">
-        <v>6.269564608273283</v>
+        <v>6.31156416048695</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.138481939297971</v>
+        <v>-2.163186956416345</v>
       </c>
       <c r="G30" t="n">
-        <v>1.48735138159335</v>
+        <v>1.465170304135981</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7314905582401691</v>
       </c>
       <c r="E31" t="n">
-        <v>6.010643184876684</v>
+        <v>6.03970587393238</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.985843796038518</v>
+        <v>-1.989227937149315</v>
       </c>
       <c r="G31" t="n">
-        <v>1.410221296611374</v>
+        <v>1.385304573921184</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6895817837205762</v>
       </c>
       <c r="E32" t="n">
-        <v>5.772443723212008</v>
+        <v>5.789103141591855</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.873813772089503</v>
+        <v>-1.869158610538256</v>
       </c>
       <c r="G32" t="n">
-        <v>1.338409822240273</v>
+        <v>1.307337110766676</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6387748563292793</v>
       </c>
       <c r="E33" t="n">
-        <v>5.437843460463272</v>
+        <v>5.441577033818997</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.816963349466364</v>
+        <v>-1.80502677545998</v>
       </c>
       <c r="G33" t="n">
-        <v>1.264438793634747</v>
+        <v>1.230208599803821</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5819562381703943</v>
       </c>
       <c r="E34" t="n">
-        <v>5.152735080945593</v>
+        <v>5.146287898624745</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.737929488357175</v>
+        <v>-1.723539018540683</v>
       </c>
       <c r="G34" t="n">
-        <v>1.153454705391835</v>
+        <v>1.116078047337429</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5221998296493712</v>
       </c>
       <c r="E35" t="n">
-        <v>4.770478241261236</v>
+        <v>4.748585209303065</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.692824396417182</v>
+        <v>-1.675397643715702</v>
       </c>
       <c r="G35" t="n">
-        <v>1.077500412693471</v>
+        <v>1.04324031249924</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4626057867421592</v>
       </c>
       <c r="E36" t="n">
-        <v>4.321268924233233</v>
+        <v>4.289040882724601</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.623653339122063</v>
+        <v>-1.599511820849113</v>
       </c>
       <c r="G36" t="n">
-        <v>1.016658277578714</v>
+        <v>0.9792186587594557</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4065967508838242</v>
       </c>
       <c r="E37" t="n">
-        <v>3.966370110896203</v>
+        <v>3.926567889375872</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.588485816904402</v>
+        <v>-1.564911732524682</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9352232502999801</v>
+        <v>0.8992616354356233</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3563188031184421</v>
       </c>
       <c r="E38" t="n">
-        <v>3.636077938482467</v>
+        <v>3.58931068235038</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.501448068563399</v>
+        <v>-1.473848430280952</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8455025863667196</v>
+        <v>0.8069060634933055</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3127027216291182</v>
       </c>
       <c r="E39" t="n">
-        <v>3.224471938262337</v>
+        <v>3.167028110430468</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.477261690745492</v>
+        <v>-1.4495589542106</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7763496302914952</v>
+        <v>0.7412159494849425</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2767771400087248</v>
       </c>
       <c r="E40" t="n">
-        <v>2.830409955168224</v>
+        <v>2.763506272417338</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.470610672948436</v>
+        <v>-1.446233051807292</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7065198459941116</v>
+        <v>0.6709533099292012</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2474855603272541</v>
       </c>
       <c r="E41" t="n">
-        <v>2.482761073903905</v>
+        <v>2.413955976054488</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.441975330084174</v>
+        <v>-1.415030483756188</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6552981157487445</v>
+        <v>0.6194309420316657</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2231250845985532</v>
       </c>
       <c r="E42" t="n">
-        <v>2.115470008024875</v>
+        <v>2.042200991947449</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.409968438262085</v>
+        <v>-1.384400858665237</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5891357960039914</v>
+        <v>0.5537298098894538</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2027655406937703</v>
       </c>
       <c r="E43" t="n">
-        <v>1.868552054447315</v>
+        <v>1.801930121119142</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.380380813829435</v>
+        <v>-1.359544735711217</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5136678752141086</v>
+        <v>0.4791559319604697</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.185299621194216</v>
       </c>
       <c r="E44" t="n">
-        <v>1.640723804772889</v>
+        <v>1.582604722737983</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.377223331472106</v>
+        <v>-1.359364510521828</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4402965478937984</v>
+        <v>0.4087642228367817</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.169681367650927</v>
       </c>
       <c r="E45" t="n">
-        <v>1.420685375729781</v>
+        <v>1.362926744073652</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.305618053605895</v>
+        <v>-1.288858685011846</v>
       </c>
       <c r="G45" t="n">
-        <v>0.385816598067339</v>
+        <v>0.3534547649333968</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.15539463478645</v>
       </c>
       <c r="E46" t="n">
-        <v>1.196763841514424</v>
+        <v>1.140358866302614</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.242996489874508</v>
+        <v>-1.22704931514705</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3414607392290856</v>
+        <v>0.31392327470193</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1423109288837815</v>
       </c>
       <c r="E47" t="n">
-        <v>1.065394631631547</v>
+        <v>1.013565330005358</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.193675387718111</v>
+        <v>-1.177854921529918</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2687520739588429</v>
+        <v>0.239657904520721</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1300685250252278</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8837134745554152</v>
+        <v>0.8410087617754062</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.117108014572</v>
+        <v>-1.104087728400601</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2002554838572009</v>
+        <v>0.1771661973668411</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1185874402088488</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7209111028201637</v>
+        <v>0.6788470158225242</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.052662949688586</v>
+        <v>-1.042068226983111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1552605732556994</v>
+        <v>0.1313921473002958</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1084825916938476</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6374754972382568</v>
+        <v>0.5987058322614995</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9907803879346494</v>
+        <v>-0.983358100768156</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1317935221762275</v>
+        <v>0.1123166095692528</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1001985392291795</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5151978218000129</v>
+        <v>0.4789764937806415</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9695208986728017</v>
+        <v>-0.9638064222529196</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1143817226563993</v>
+        <v>0.09974806688566676</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09392166158469624</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3591243818083219</v>
+        <v>0.3310769350858649</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9596329105527908</v>
+        <v>-0.9614438195518472</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06135459247890038</v>
+        <v>0.04474239467269293</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09023739180241776</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2986159387472809</v>
+        <v>0.2689818807505528</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.942443047729066</v>
+        <v>-0.9358416115343309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06015833794671186</v>
+        <v>0.04921733103455078</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.08930424358763875</v>
       </c>
       <c r="E54" t="n">
-        <v>0.175710229679638</v>
+        <v>0.1557012986096636</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9020639482007787</v>
+        <v>-0.9004694668309011</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01931411576808031</v>
+        <v>0.009281317888909731</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09079233518631803</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1072608601516349</v>
+        <v>0.09882569168058455</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.906812763889743</v>
+        <v>-0.9114742215174749</v>
       </c>
       <c r="G55" t="n">
-        <v>0.005033040280519175</v>
+        <v>-0.002630858821093874</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09450750000106167</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02594073626875621</v>
+        <v>0.01875061692265467</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9116505116590606</v>
+        <v>-0.9207050566543428</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03052877372702726</v>
+        <v>-0.03773463326434182</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09998821584311478</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07527656332648451</v>
+        <v>-0.07901800677781626</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9347256319773287</v>
+        <v>-0.9491263329181087</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06998943309803551</v>
+        <v>-0.07678289962556928</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1062484739781612</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1188517086805728</v>
+        <v>-0.1193616908758742</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9298556168160244</v>
+        <v>-0.9473713015978584</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0974387525543982</v>
+        <v>-0.1030989253145955</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.112451953817167</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1959235549550609</v>
+        <v>-0.1944927715737986</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9395429174980694</v>
+        <v>-0.9566178769259392</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1134984696490291</v>
+        <v>-0.1180615510816798</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1176590088250787</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2789656557566426</v>
+        <v>-0.2750180158004205</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9668930737497902</v>
+        <v>-0.9915327690746312</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1242836486681814</v>
+        <v>-0.127296321266351</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1210479445756241</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3612081548446036</v>
+        <v>-0.3538307272230672</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9482346510858918</v>
+        <v>-0.9731726230342193</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1605490492229493</v>
+        <v>-0.1654615629005287</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1216940435177965</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4831379720570401</v>
+        <v>-0.4772464184860116</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9737321868318417</v>
+        <v>-1.007159630910904</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1817369206147778</v>
+        <v>-0.1857286331063964</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1196951908859268</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5318428457274472</v>
+        <v>-0.5264770145429332</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9943227179671366</v>
+        <v>-1.031534104013806</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2144056874773736</v>
+        <v>-0.2202295582261861</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1156805272166191</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6737249293214912</v>
+        <v>-0.6699095069714583</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.031418413608391</v>
+        <v>-1.071681822731262</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2614232126497464</v>
+        <v>-0.2682701958274045</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1112544099140324</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8344393646923373</v>
+        <v>-0.8353837761651177</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.090791201873413</v>
+        <v>-1.136370860578478</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3208597486891817</v>
+        <v>-0.3299260988278737</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1084862509243156</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9415002102754069</v>
+        <v>-0.9446348693554771</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.117912338342985</v>
+        <v>-1.163826476111326</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3553008610823621</v>
+        <v>-0.3648394169574443</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1092764797277494</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.021721668811618</v>
+        <v>-1.032124361184294</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.172183730635872</v>
+        <v>-1.222249343836643</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4087230700593074</v>
+        <v>-0.4206132105016128</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1145648270634533</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.111884632117964</v>
+        <v>-1.130429725405128</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.22609388554042</v>
+        <v>-1.284280650397543</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4353822319167772</v>
+        <v>-0.4464428642821571</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1258701489195438</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.25743575428376</v>
+        <v>-1.289430840962439</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.281121594021092</v>
+        <v>-1.340087498343259</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4663589282239747</v>
+        <v>-0.4794248609498917</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1441118163208365</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.310197662239319</v>
+        <v>-1.346282050595138</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.361849099704801</v>
+        <v>-1.425304893570478</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4997847982839161</v>
+        <v>-0.5168109631190256</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1692598234914148</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.363884306428643</v>
+        <v>-1.405273139223245</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.390950352228969</v>
+        <v>-1.459714525581232</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5514740122083094</v>
+        <v>-0.5720794965252567</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2015785496686864</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.43492844647811</v>
+        <v>-1.481162110128075</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.439242045880035</v>
+        <v>-1.507563919859213</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.537107939688198</v>
+        <v>-0.5607434108136492</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2411507212190867</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.467470504801441</v>
+        <v>-1.525886289440713</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.446772940365898</v>
+        <v>-1.512932112072409</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5624276112734409</v>
+        <v>-0.5892520451386472</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2867173601729998</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.51046483709977</v>
+        <v>-1.573996970892829</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.480704857573338</v>
+        <v>-1.547405491857575</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5692289478965812</v>
+        <v>-0.5952994266026844</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3364584856654153</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.500557173740743</v>
+        <v>-1.569827394240504</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.474138049799271</v>
+        <v>-1.536910719366303</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.588261987111349</v>
+        <v>-0.6158073217341111</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3887691022701881</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.416295208120153</v>
+        <v>-1.485822780746247</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.531688123921828</v>
+        <v>-1.602474911844962</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5700332716675658</v>
+        <v>-0.5982585825507297</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.4414555644942266</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.36686943369219</v>
+        <v>-1.436329323496068</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.541208578577015</v>
+        <v>-1.612188183842509</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5460184619338813</v>
+        <v>-0.5727878051298421</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.4924154762955819</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.197022539379557</v>
+        <v>-1.263529569311875</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.49276105703294</v>
+        <v>-1.557993918486565</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5064019746698643</v>
+        <v>-0.5338654602983186</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.5414155813459176</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.077568654244927</v>
+        <v>-1.143124976627979</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.475797065953122</v>
+        <v>-1.533225153593778</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5065861349070564</v>
+        <v>-0.5371976587781122</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5885170112349738</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9006386738864409</v>
+        <v>-0.9636986019431104</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.445447616265763</v>
+        <v>-1.49815836859988</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4932966914659147</v>
+        <v>-0.5246165239415558</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.6332277080234543</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7551945850208935</v>
+        <v>-0.8184449693912403</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.41855549957834</v>
+        <v>-1.463843177736404</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4638184613621954</v>
+        <v>-0.4924419990830484</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6767879205191143</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5564022660771019</v>
+        <v>-0.6116078387184809</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.416755608713133</v>
+        <v>-1.456058079162451</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4203424792127491</v>
+        <v>-0.4456747429509624</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.7194883665693538</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3516585808356723</v>
+        <v>-0.4053971676559991</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.338242747933094</v>
+        <v>-1.365574015955359</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3383675633754093</v>
+        <v>-0.361650454217689</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.7606748543463936</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.167070210442498</v>
+        <v>-0.2150415912023791</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.319223874890418</v>
+        <v>-1.339893893991339</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3165658245262735</v>
+        <v>-0.3397149237432427</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.7994468158665482</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02255502113883843</v>
+        <v>-0.02231868999032288</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.202330131856583</v>
+        <v>-1.216957491550831</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2844149099545856</v>
+        <v>-0.3111999933417594</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.8343606062074092</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2782418352411647</v>
+        <v>0.2405299111139216</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.10416013328018</v>
+        <v>-1.112602384837277</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2193449594800152</v>
+        <v>-0.2451053564192222</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.8628774714185977</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5052846493740611</v>
+        <v>0.4736547351315238</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9829504298157391</v>
+        <v>-0.9829787621599225</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1588727188587641</v>
+        <v>-0.1827490149097742</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.8815132198926466</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6768385674237444</v>
+        <v>0.6466724909640168</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8363462888577931</v>
+        <v>-0.8336413369978378</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1348547610868369</v>
+        <v>-0.1581565401585722</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.8872884195504499</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8514413605113871</v>
+        <v>0.8300095161557569</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7194454627379123</v>
+        <v>-0.7158488290457402</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08227622635890867</v>
+        <v>-0.1027526411079093</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.8766859097917754</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9836652627771301</v>
+        <v>0.9672529653993278</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5450882166331925</v>
+        <v>-0.5349216271287114</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06413723000503956</v>
+        <v>-0.08436180169463209</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.8470662499641989</v>
       </c>
       <c r="E91" t="n">
-        <v>1.100399242870153</v>
+        <v>1.086922491153576</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3496721687045908</v>
+        <v>-0.336225323351319</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08448929724345744</v>
+        <v>-0.1031729042132966</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7986003410866799</v>
       </c>
       <c r="E92" t="n">
-        <v>1.157383457118602</v>
+        <v>1.148106188417656</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2099716756126696</v>
+        <v>-0.1984514296638698</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04668450598805753</v>
+        <v>-0.0649525719098733</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.7337315668926891</v>
       </c>
       <c r="E93" t="n">
-        <v>1.191807255301448</v>
+        <v>1.182964415877981</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1094642586411355</v>
+        <v>-0.09790151417606061</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04727161512030268</v>
+        <v>-0.06296458575967054</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.6566784478833729</v>
       </c>
       <c r="E94" t="n">
-        <v>1.169468775931948</v>
+        <v>1.166523786155995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03540846128337985</v>
+        <v>0.05294146027554821</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01434785716005619</v>
+        <v>-0.02761998639086359</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.5738070274513069</v>
       </c>
       <c r="E95" t="n">
-        <v>1.175645226963932</v>
+        <v>1.178554014300096</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1134829577381366</v>
+        <v>0.1326655287694281</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04996003977948425</v>
+        <v>-0.06147398965179879</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.491615436159427</v>
       </c>
       <c r="E96" t="n">
-        <v>1.095326179242201</v>
+        <v>1.099421776995825</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1908995142001896</v>
+        <v>0.2113460225858855</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08181189071812497</v>
+        <v>-0.09036983268063681</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.4157804023268122</v>
       </c>
       <c r="E97" t="n">
-        <v>1.043027819917864</v>
+        <v>1.04891622545065</v>
       </c>
       <c r="F97" t="n">
-        <v>0.236810503930288</v>
+        <v>0.25880112507398</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0482191746313257</v>
+        <v>-0.05474505790823835</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.3485494719261639</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9300006548555044</v>
+        <v>0.9326654692278665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2193546318750634</v>
+        <v>0.240171034754265</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1064940845592411</v>
+        <v>-0.112476931239305</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2919597342036844</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8925547399597611</v>
+        <v>0.8985737890796149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2053899342308837</v>
+        <v>0.2222760113641975</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09410655407460465</v>
+        <v>-0.09926146669686439</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2408066887129468</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8395779783941438</v>
+        <v>0.8429573974475765</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1965045962911413</v>
+        <v>0.2136645527515614</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09608981816744351</v>
+        <v>-0.1012809332294932</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1946516969589451</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7804877265613948</v>
+        <v>0.7864265007060622</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1781468112794114</v>
+        <v>0.1923035392563898</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08411782873083049</v>
+        <v>-0.08778844132170369</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1431321073921729</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7691044202761481</v>
+        <v>0.7735730605615208</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1540564486279044</v>
+        <v>0.1635131555086789</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06983360520502674</v>
+        <v>-0.0713493856188393</v>
       </c>
     </row>
   </sheetData>
